--- a/publipostage/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00295113</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Interest of a 30 Minutes' Intermittent Work Exercise Test in Patients With Chronic Obstructive Pulmonary Disease: Cardiac and Pulmonary Functions</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00213915</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Effects of Oral Chronic L-Arginine Supplementation on Exercise and Renal Function of Heart Transplant Recipients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00213850</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT02091791</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Reference Values for Respiratory Resistance Measured by the Interrupter Technique in Adults</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>High Versus Low Level of Lumbar Traction in Acute Lumbar Sciatica Due to Disc Herniation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,29 +607,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT02091791</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00213759</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>High Versus Low Level of Lumbar Traction in Acute Lumbar Sciatica Due to Disc Herniation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prevention Trial of Nosocomial Infections in Neutropenic Prematures With G-CSF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -620,29 +645,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00213759</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00213850</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prevention Trial of Nosocomial Infections in Neutropenic Prematures With G-CSF</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reference Values for Respiratory Resistance Measured by the Interrupter Technique in Adults</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +683,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT00357487</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sentinel Lymph Node Identification in Case of Breast Cancer. Clinical Evaluation of a New Intra-operative Probe and a Mini Gamma Camera</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -686,32 +721,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT00696033</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Exploring the Effects of Diazepam and Lorazepam on the Neural Correlates of Perceptual Priming and Explicit Memory in Healthy Volunteers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>ibid</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -723,28 +763,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT00213837</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Reconstruction Implant Bone (Anterior Mandibular Arch) After Removing Using Porous Titanium Prosthesis in ENT Surgery</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -756,28 +801,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT00620490</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia : Paravertebral Analgesia With a Catheter Associated With Intravenous Morphine Patient-controlled-analgesia (Pca)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -789,28 +839,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT01013727</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Functional Neuroimaging of Postural Reconstruction: Preliminary Study on a Dorsiflexion Motion of the Ankle and Comparison Between an Arm Following Postural Reconstruction Program and a Comparator Arm Following a Muscular Stretching Program</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -822,28 +877,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT00372268</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Evaluation of the Effects of Conditioning of Insufflated Gas on the Core Temperature and the Post-operative Pain During Laparoscopic Surgery</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -855,28 +915,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00213798</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00382707</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Transcranial Magnetic Stimulation and Anti-epileptic Effect: Optimization and Evaluation With Electrophysiology.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -888,28 +953,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00400413</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT00434265</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Phonological Perception and Learning to Read : the Neuroanatomy of Reading in Congenitally Deaf Persons</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -921,28 +991,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT00382707</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT00400413</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Transcranial Magnetic Stimulation and Anti-epileptic Effect: Optimization and Evaluation With Electrophysiology.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Phonological Perception and Learning to Read : the Neuroanatomy of Reading in Congenitally Deaf Persons</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -954,28 +1029,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT00434265</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT00213798</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>OBESITY, PHYSICAL INACTIVITY OR DIETARY FAT ? Role of Physical Activity in the Trafficking of Dietary Fatty Acids Varying in Length and Saturation Degree.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Detection of Plasma DNA by Allelotyping in Non Small Cell and Small Cell Lung Cancer Patients. Evolution During Treatment and Follow-up.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -987,28 +1067,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02117206</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01282697</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Protective Effects of L-arginine During Reperfusion by Femoropopliteal Bypass for Lower Limb Ischemic Syndrome in Humans</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="b">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Phase I Clinical Trial of Rapamycin and Irinotecan in Pediatric Patients With Refractory Solid Tumors</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>RAPIRI</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1020,33 +1109,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01000441</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT00446953</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ROC</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
+          <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1057,28 +1147,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT00576134</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Artificial Larynx : Intralaryngeal Prosthesis With Valve in Major Swallowing Troubles</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1088,34 +1183,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2010-022329-13</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Etude de phase I associant la rapamycine et l’irinotecan dans toutes tumeurs solides réfractaires de l’enfant</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>RAPIRI</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1127,32 +1227,33 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01282697</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT02117206</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Phase I Clinical Trial of Rapamycin and Irinotecan in Pediatric Patients With Refractory Solid Tumors</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RAPIRI</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
+          <t>Protective Effects of L-arginine During Reperfusion by Femoropopliteal Bypass for Lower Limb Ischemic Syndrome in Humans</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1164,29 +1265,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT00446953</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01000441</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Interest in Programming Caesarean Section at 38 Weeks of Pregnancy With Antenatal Betamethasone to Prevent Neonatal Respiratory Distress and to Avoid Emergency Caesarean Section Before Planned Date.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Rotation or Change of Biotherapy After First Anti-TNF Treatment Failure for Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ROC</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1197,28 +1307,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01960478</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT00813683</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Predictive Value of Copeptin in the Diagnosis of Acute Ischemic Stroke</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Study of Cephalic Version by Acupuncture for Breech Presentation.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1230,62 +1345,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT00854698</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT00757302</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Long-Term Effects of Aortic Valve Mismatch on Functional Ability and Remodeling the Left Ventricular After Aortic Valve Replacement Mechanics</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Evaluation of a New Intraoperative Gamma Camera for the Sentinel Lymph Node Procedure in Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01992835</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT01960478</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Predictive Value of Copeptin in the Diagnosis of Acute Ischemic Stroke</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1296,28 +1421,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT00792194</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT00854698</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Long-Term Effects of Aortic Valve Mismatch on Functional Ability and Remodeling the Left Ventricular After Aortic Valve Replacement Mechanics</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1329,62 +1459,72 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT00813683</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT00792194</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Study of Cephalic Version by Acupuncture for Breech Presentation.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Improvement of Aerobic Capacity in Cystic Fibrosis Patients With a One-year Home Training Period</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT01498211</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT01992835</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Establishement of Normative Intra-epidermal Nerve Fiber Density Using Skin</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Resolution of Allergic Inflammation: Identification and Kinetics of Specific Lipid Mediators During Nasal Allergen Challenge</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1395,28 +1535,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT00757302</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01498211</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Evaluation of a New Intraoperative Gamma Camera for the Sentinel Lymph Node Procedure in Breast Cancer</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Establishement of Normative Intra-epidermal Nerve Fiber Density Using Skin</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1428,29 +1573,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02150174</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01942343</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1461,28 +1611,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01760512</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02478528</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Prospective, Single-blind, Randomized, Non-inferiority, and Controlled Study of Clinical and Health Economic Impact of Robot-assisted Surgery Versus Conventional Laparoscopy in Bariatric Surgery: the Case of Gastric Bypass</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="b">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>LUMI</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1492,105 +1651,112 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>NCT02150174</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Retrieval Practice in Patients With Schizophrenia : an Exploratory Study Using Word Pairs</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT01760512</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Prospective, Single-blind, Randomized, Non-inferiority, and Controlled Study of Clinical and Health Economic Impact of Robot-assisted Surgery Versus Conventional Laparoscopy in Bariatric Surgery: the Case of Gastric Bypass</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>2013-000905-22</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>à compléter 
  ETUDE DE L’EFFET DU DROPERIDOL ET DE L’ONDANSETRON SUR L’INCIDENCE DE L’AKATHISIE POST OPERATOIRE EN CHIRURGIE GYNECOLOGIQUE AMBULATOIRE</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NCT02478528</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Study of Effects of Light on the Vigilance and Cognitive Performance Following a Night Without Sleep</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>LUMI</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NCT02563444</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ECHOFUSION</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1602,29 +1768,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01942343</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02563444</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Etude de l'Effet du dropéridol et de l'Ondansetron Sur l'Incidence de l'Akathisie Post opératoire en Chirurgie Ambulatoire</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="b">
-        <v>0</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Interest in Using Ultrasound Fusion in Percutaneous Interventional Radiology</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ECHOFUSION</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1635,32 +1810,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01471002</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT00384540</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CRYOREIN</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
+          <t>Allograft Vasculopathy After Heart Transplantation : Diagnostic Interest of Dobutamine Stress Echocardiography and Brain Natriuretic Peptide Coupling</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1672,29 +1848,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT01329302</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT01980420</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="b">
-        <v>0</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Prospective Study of the Impact of Sleeve Gastrectomy on Gastro-esophageal Junction Function</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FFSI</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1705,70 +1890,80 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02026895</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02409953</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Virulence of Staphylococcus Lugdunensis in Severe Infections</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VISLISI</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>IMMERSION</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02409953</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02582346</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Effect of Immersion, Performed Under the Conditions of Obstetrical Dilatation Bath, on Diuresis and Hemodynamic Variables in Young Women</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>IMMERSION</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Assessment of Magnetic Resonance Imaging Neurography and Tractography for Preoperative Mapping of Pelvic Nerves</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Neuro-Tracto</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1779,33 +1974,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01980420</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT01329302</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Prospective Study of the Impact of Sleeve Gastrectomy on Gastro-esophageal Junction Function</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FFSI</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
+          <t>Follicular Flushing for Poor Responder Patient in an Assisted Reproductive Technology Program: Flush Study</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1816,70 +2012,80 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02582346</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT01881399</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Assessment of Magnetic Resonance Imaging Neurography and Tractography for Preoperative Mapping of Pelvic Nerves</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Neuro-Tracto</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Fluorescence Cholangiography Versus Conventional Intraoperative Cholangiography for Visualization of Biliary Tract Anatomy : a Prospective, Controlled Study</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FLARIOC</t>
+        </is>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT01881399</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02026895</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Fluorescence Cholangiography Versus Conventional Intraoperative Cholangiography for Visualization of Biliary Tract Anatomy : a Prospective, Controlled Study</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FLARIOC</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Virulence of Staphylococcus Lugdunensis in Severe Infections</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>VISLISI</t>
+        </is>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,28 +2096,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT00384540</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT01471002</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Allograft Vasculopathy After Heart Transplantation : Diagnostic Interest of Dobutamine Stress Echocardiography and Brain Natriuretic Peptide Coupling</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="b">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Prospective Study to Evaluate the Efficacy of Percutaneous Cryoablation for Renal Tumours &lt; 4cm in Patients Who Are Not Candidates for Partial Nephrectomy</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CRYOREIN</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1923,66 +2138,76 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>NCT00793676</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>G Protein Coupled Receptor (GPCR)Signature as Biomarker of Chronic Pulmonary Inflammatory Diseases and of Therapeutic Follow-up</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="b">
         <v>1</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
       </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02570594</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02011802</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Autobiographical Memory Organization in Schizophrenia</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AMOrSchiz</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Sorbact TM: Effect of a Microbial Binding Dressing on Wound Healing After Pilonidal Sinus Excision</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SORKYSA</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1993,66 +2218,76 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02773589</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02570594</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="b">
-        <v>0</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Autobiographical Memory Organization in Schizophrenia</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>AMOrSchiz</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT02011802</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02773589</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Sorbact TM: Effect of a Microbial Binding Dressing on Wound Healing After Pilonidal Sinus Excision</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SORKYSA</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
+          <t>Prospective Evaluation of a New Approach to Perform an Esophageal Myotomy: the Transesophageal Submucosa Approach</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2063,28 +2298,33 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>NCT01312649</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Feeling of Being in Control of One's Own Action: Which Mechanisms in Healthy Volunteers and in Mental Diseases</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2096,33 +2336,34 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02476305</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02176681</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Evaluation of the Cryodestruction of Non Abdominopelvic Desmoid Tumors in Patients Progressing Despite Medical</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CRYODESMO01</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
+          <t>A Prospective, Multicenter, Randomized, Open-label Study of 12 Week Duration to Evaluate the Effect of VILDagliptin Added to Insulin on Glycaemic Control in haemoDIALyzed Patients With Type 2 Diabetes: Probe Analysis of CGM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2131,68 +2372,84 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2013-004737-33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A prospective, multicenter, randomized, open-label study of 12 week duration to evaluate the effect of VILDagliptin added to insulin on glycaemic control in haemoDIALyzed patients with type 2 diabetes: probe analysis of CGM  
+ Etude prospective randomisée multicentrique d’évaluation de la VILDagliptine associée à l’insuline sur le contrôle glycémique chez les patients hémoDIALysés diabétiques de type 2 : étude VILDDIAL</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>VILDDIAL   
+ VILDDIAL</t>
+        </is>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>2015-003138-28</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Héparinothérapie pour la circulation extracorporelle en chirurgie cardiaque chez les patients obèses : étude prospective évaluant une posologie basée sur le poids idéal au C.H.U. de Strasbourg</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>HEPOIRINE 
  HEPOIRINE</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>NCT02176681</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>A Prospective, Multicenter, Randomized, Open-label Study of 12 Week Duration to Evaluate the Effect of VILDagliptin Added to Insulin on Glycaemic Control in haemoDIALyzed Patients With Type 2 Diabetes: Probe Analysis of CGM</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2202,70 +2459,82 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2013-004737-33</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+          <t>NCT02476305</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>A prospective, multicenter, randomized, open-label study of 12 week duration to evaluate the effect of VILDagliptin added to insulin on glycaemic control in haemoDIALyzed patients with type 2 diabetes: probe analysis of CGM  
- Etude prospective randomisée multicentrique d’évaluation de la VILDagliptine associée à l’insuline sur le contrôle glycémique chez les patients hémoDIALysés diabétiques de type 2 : étude VILDDIAL</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VILDDIAL   
- VILDDIAL</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Evaluation of the Cryodestruction of Non Abdominopelvic Desmoid Tumors in Patients Progressing Despite Medical</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CRYODESMO01</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT03946215</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT01782235</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Comparison of Cardiorespiratory Responses to Treadmill Running at Different Slopes in Well-trained Athletes</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="b">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>A Randomized, Double-blind, Parallel, Placebo-controlled Trial to Evaluate the Efficacy of Tocilizumab for the Treatment of Primary Sjögren's Syndrome.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ETAP</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2276,66 +2545,80 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02887560</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
+          <t>2012-000809-67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Comparison by Transoesophageal Assessement of Systolic Right Ventricle Function Measures in Perioperative Care of Pulmonary Transplant.</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ETO VD PERIOP</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>HEA vs Blood patch</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT01698203</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02552004</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia: Continuous Wound Catheter Analgesia Associated With Intravenous Morphine Patient-Controlled-Analgesia (PCA)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="b">
-        <v>0</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Assessment of the Intraoperative Probe-based Confocal Laser Endomicroscopy in Digestive and Endocrine Surgery - a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pilot pCLE</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2346,66 +2629,76 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT02472197</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT02887560</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>RESMO</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Comparison by Transoesophageal Assessement of Systolic Right Ventricle Function Measures in Perioperative Care of Pulmonary Transplant.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ETO VD PERIOP</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02815800</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02030470</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ETHNOPARK</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2416,107 +2709,118 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>NCT02626091</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Perfusion Evaluation by Real-time Fluorescence-based Enhanced Reality of Anastomosis</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>PERFECT</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT01782235</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02570724</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>A Randomized, Double-blind, Parallel, Placebo-controlled Trial to Evaluate the Efficacy of Tocilizumab for the Treatment of Primary Sjögren's Syndrome.</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ETAP</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
+          <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02552004</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02472197</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Assessment of the Intraoperative Probe-based Confocal Laser Endomicroscopy in Digestive and Endocrine Surgery - a Pilot Study</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Pilot pCLE</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
+          <t>Morcellator Versus Resectoscope in the Treatment of Uterine Polyps by Hysteroscopy</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>RESMO</t>
+        </is>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2525,68 +2829,74 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2012-000809-67</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+          <t>NCT02815800</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>EFFICACITE CLINIQUE  ET VASOCONSTRICTION CEREBRALE INDUITES PAR BLOOD PATCH VERSUS INJECTION PÉRIDURALE D’UNE SOLUTION D’HYDROXYETHYLAMIDON (VOLUVEN) CHEZ DES PATIENTS PRESENTANT DES CEPHALEES INVALIDANTES DUES A UNE HYPOTENSION INTRACRANIENNE</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>HEA vs Blood patch</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ETHNOPARK</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT02030470</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT03946215</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Evaluation of Photodynamic Treatment FOTOSAN® Efficacy in Periodontology</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Comparison of Cardiorespiratory Responses to Treadmill Running at Different Slopes in Well-trained Athletes</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2597,28 +2907,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02570724</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT01698203</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Clinical Effect and Cerebral Vasoconstriction Induced After Epidural Blood Patch Versus Epidural Hydroxyethyl Starch Patch in Patients With Headache Due to Intracranial Hypotension</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Postoperative Analgesia After Thoracotomy Without Thoracic Epidural Analgesia: Continuous Wound Catheter Analgesia Associated With Intravenous Morphine Patient-Controlled-Analgesia (PCA)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2630,107 +2945,122 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>NCT02858765</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Influence of Light on Sleep, Awakening, Electroencephalogram (EEG) and Cognitive Performances, and Medical Technology Assessment for Registration and Long-term EEG Analysis</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>CHRONOSOMNO</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT01548729</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT02747056</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PIM</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>TSASDI</t>
+        </is>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT03427593</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT01548729</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Phenotype-genotype Correlation in a Sub-population of Severe Primary Immunodeficiency With Lymphoproliferation and Neutropenia</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DICEP</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Metabolic Efficiency of Combined Pancreatic Islet and Lung Transplant for the Treatment of End-Stage Cystic Fibrosis : a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PIM</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2739,109 +3069,124 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>NCT03706157</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kinectics of Distribution of Doxorubicin-Lipiodol Emulsion in c-TACE: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CineDoxo</t>
+        </is>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT03427593</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Phenotype-genotype Correlation in a Sub-population of Severe Primary Immunodeficiency With Lymphoproliferation and Neutropenia</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>DICEP</t>
+        </is>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>2014-003209-14</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>ASSESSMENT OF EARLY  CHANGES OBSERVABLE IN DIFFUSION MRI IN RESPONSE TO TYSABRI TREATMENT TO TWO YEARS IN PATIENTS WITH MULTIPLE SCLEROSIS 
  EVALUATION DES CHANGEMENTS PRÉCOCES VISIBLES À L’IRM DE DIFFUSION DANS LA RÉPONSE AU TRAITEMENT PAR TYSABRI À DEUX ANS CHEZ DES PATIENTS ATTEINTS DE SCLEROSE EN PLAQUES</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>TYSADIFF</t>
         </is>
       </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>NCT03706157</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Kinectics of Distribution of Doxorubicin-Lipiodol Emulsion in c-TACE: a Pilot Study</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>CineDoxo</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>NCT02747056</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Study of the Personal Identity in Adults With Autism Spectrum Disorder Without Intellectual Deficiency</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>TSASDI</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2853,103 +3198,118 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>NCT03985345</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Prospective Evaluation of the Connected EMY Biofeedback Probe in the Management of Stress Urinary Incontinence.</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Reduc@home</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT03382327</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT00476281</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Multicentric Study Determining the Benefit of the Use of 3D Models and Tools in Hepatectomy Planning for Hepatocarcinomas</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3D-HAPPI</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
+          <t>Multicenter Prospective Study of Abnormalies Tolerance Glucose by the Continuous Measurement of Glucose of Nutritional Status and Breathing in the Patient With Cystic Fibrosis</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT00476281</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03382327</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Multicenter Prospective Study of Abnormalies Tolerance Glucose by the Continuous Measurement of Glucose of Nutritional Status and Breathing in the Patient With Cystic Fibrosis</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="b">
-        <v>1</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Multicentric Study Determining the Benefit of the Use of 3D Models and Tools in Hepatectomy Planning for Hepatocarcinomas</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3D-HAPPI</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2960,32 +3320,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>NCT03834181</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Evaluation of a Telemedicine System for Patients Carried for Bariatric Surgery</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Bartélémis</t>
         </is>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2997,144 +3362,164 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT03954145</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT03881436</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Comparison of Bonding Failure Rates of Fixed Mandibular Lingual Retainers in a French Sample Aged 11 or Older Comparing Prior Enamel Sandblasting With Conventional Pumice Polishing</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CONTORTHO</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Assessment of MRI Tractography for Pelvic Floor Sphincter Analysis</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>TractoCA</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT02900326</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT04423575</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MBSR</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Clinical and Economic Evaluation of Outpatient Bariatric Surgery</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Bariatric Ambu</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT04362358</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT03954145</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>REST</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
+          <t>Comparison of Bonding Failure Rates of Fixed Mandibular Lingual Retainers in a French Sample Aged 11 or Older Comparing Prior Enamel Sandblasting With Conventional Pumice Polishing</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CONTORTHO</t>
+        </is>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT04441684</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT04263818</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Study of the Seroprevalence of SARS-CoV-2 in Hospital Staff in Strasbourg University Hospital, Strasbourg, France</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SeroCoV-HUS</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
+          <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ScopeGuide</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3145,28 +3530,33 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>NCT03573752</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Study of Outpatient Management for Promontofixation by Laparoscopy</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3178,64 +3568,71 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT04263818</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT02900326</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Étude du Mouvement de l'opérateur et de l'Endoscope au Cours de la Coloscopie</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ScopeGuide</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Effect of a Mindfulness-based Stress Reduction (MBSR) Program Combined With Endurance Exercise Training: a Help to Improve Exercise Capacity and Quality of Life in Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MBSR</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT04423575</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT04441684</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Clinical and Economic Evaluation of Outpatient Bariatric Surgery</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bariatric Ambu</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Study of the Seroprevalence of SARS-CoV-2 in Hospital Staff in Strasbourg University Hospital, Strasbourg, France</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>SeroCoV-HUS</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -3243,42 +3640,50 @@
       <c r="I80" t="b">
         <v>1</v>
       </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT03881436</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT04362358</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Assessment of MRI Tractography for Pelvic Floor Sphincter Analysis</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>TractoCA</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Efficacy of an Online Cognitive Behavioral Therapy (CBT) Programme Aiming at Reducing the Stress of Health Workers Involved in the Care of Patients During the Covid-19 Epidemic: a Randomized-controlled Trial</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>REST</t>
+        </is>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3289,32 +3694,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT05178108</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03949153</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Transposition of Dynamic MRI Data From Healthy Patients to an in Vitro Swallowing Simulator</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SWALL-E</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Cryotherapy Under Interventional Radiology Combined With in Situ Ipilimumab and a Flat Dose of Nivolumab in Stage IIIB/C Melanoma. Prospective Proof of Concept Study.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CRIRIN</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3326,32 +3736,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT03949153</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT05357729</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Cryotherapy Under Interventional Radiology Combined With in Situ Ipilimumab and a Flat Dose of Nivolumab in Stage IIIB/C Melanoma. Prospective Proof of Concept Study.</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>CRIRIN</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Safety and Performance Study of the MultiSense® Ambulatory Telemonitoring System for Non-critical Patient Management</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>TELESENSE</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3363,32 +3778,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT03458403</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT05178108</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Endoscopist and Endoscope Motions During Digestive Endoscopy</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>EndoMouv</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Transposition of Dynamic MRI Data From Healthy Patients to an in Vitro Swallowing Simulator</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>SWALL-E</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3400,32 +3820,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT05357729</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT04480385</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Safety and Performance Study of the MultiSense® Ambulatory Telemonitoring System for Non-critical Patient Management</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>TELESENSE</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Study of the Technological and Operational Feasibility of a Remote Automated Monitoring System for the Post-operative Care of Surgical Patients</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>REDASUR</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3437,32 +3862,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT04480385</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT05044585</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Study of the Technological and Operational Feasibility of a Remote Automated Monitoring System for the Post-operative Care of Surgical Patients</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>REDASUR</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Evaluation of RDS MultiSense® in Desaturation Analysis and Effects of Hypoxia on Circulating Oxidative Stress and Mitochondrial Respiration in Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>HYPO</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3474,32 +3904,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT05044585</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT03458403</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Evaluation of RDS MultiSense® in Desaturation Analysis and Effects of Hypoxia on Circulating Oxidative Stress and Mitochondrial Respiration in Healthy Volunteers</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>HYPO</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Endoscopist and Endoscope Motions During Digestive Endoscopy</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>EndoMouv</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3511,32 +3946,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT04153721</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT04616287</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Evaluation of a Digital Perioperative Support Solution for Colorectal Surgery: Compliance and Impact on Patients</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Get Ready</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>Self in Dementia With Lewy Bodies: a Behavioral and Multimodal Neuroimaging Study</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>SELF-MCL</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3548,32 +3988,33 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT03996005</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT02072642</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MRI-TULSAP</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
+          <t>Light Therapy in Parkinson's Disease : Effect on Motor Symptoms, Sleep, Circadian Rhythms, and Mood</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3585,32 +4026,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT04580563</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Prospective Randomized Versus Placebo Study Assessing Efficacy of Plasmatherapy in Septic Shock-induced Coagulopathy: Feasibility Study</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>PlasmaFaisa</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3622,32 +4068,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT05707247</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT04532151</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MORPHEE 2</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Optical Coherence Tomography Imaging in Systemic Sclerosis</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>OCTISS</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3659,32 +4110,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT04532151</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT04153721</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Optical Coherence Tomography Imaging in Systemic Sclerosis</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>OCTISS</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+          <t>Evaluation of a Digital Perioperative Support Solution for Colorectal Surgery: Compliance and Impact on Patients</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Get Ready</t>
+        </is>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3696,28 +4152,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT02072642</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT03996005</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Light Therapy in Parkinson's Disease : Effect on Motor Symptoms, Sleep, Circadian Rhythms, and Mood</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="b">
-        <v>0</v>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Evaluation of an Alternative Treatment of Localized Prostate Cancer by Guided MRI Transurtral Ultrasound With 1-year Control of the Absence of Cancer</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>MRI-TULSAP</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3729,32 +4194,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT04616287</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT05707247</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Self in Dementia With Lewy Bodies: a Behavioral and Multimodal Neuroimaging Study</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>SELF-MCL</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Evaluation of the Feasibility of an Expert Decision Support System for Patients Regarding the Optimization of the Management of Drugs With Conditional Administration in the Surgical Department: Pilot Study</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>MORPHEE 2</t>
+        </is>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3766,32 +4236,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>NCT03947216</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Study of Pimavanserin Efficacy for the Treatment of Impulse Control Disorders in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>PIMPARK</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3803,32 +4278,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT02414789</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT04802954</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Lyme Borreliosis and Early Cutaneous Diagnostic</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>DIABOLYC</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>Risk Stratification of Hepatocarcinogenesis Using a Deep Learning Based Clinical, Biological and Ultrasound Model in High-risk Patients</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>STARHE</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3840,32 +4320,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>NCT04222023</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Intravenous Immunoglobulins for Prevention of BKV Infection in Kidney Transplant Recipients According to BKV Genotype-specific Neutralizing Antibody Titers at the Day of Transplantation: A Multicenter Study</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>BKANIG</t>
         </is>
       </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3877,32 +4362,33 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT04802954</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT02651948</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Risk Stratification of Hepatocarcinogenesis Using a Deep Learning Based Clinical, Biological and Ultrasound Model in High-risk Patients</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>STARHE</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
+          <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3914,32 +4400,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT03216967</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT02414789</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>BK EVER</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>Lyme Borreliosis and Early Cutaneous Diagnostic</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>DIABOLYC</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3951,28 +4442,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT02651948</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT03216967</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Transperineal, MRI-guided, Prostate Biopsy: First Step to Focal Treatment of Prostate Cancer</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="b">
-        <v>0</v>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Multicenter Randomized Two-arms Study Evaluating the BK Viral Clearance in Kidney Transplant Recipients With BK Viremia After Reduction of Immunosuppression Alone vs. Reduction of Immunosuppression and Replacement of Mycophenolate Mofetil by Everolimus</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>BK EVER</t>
+        </is>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3984,24 +4484,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>NCT00314405</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>Identification of Sentinel Lymph Node (SLN) in Breast Cancer Care: Clinical and Economical Evaluation of a Double Method Using Isotope and Methylene Blue Dye Injection.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4013,24 +4518,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>NCT00401141</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
         <is>
           <t>Phenotypic Characteristics and Transcriptomas of B Lymphocytes During Non Active Systemic Lupus Erythematosus</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4042,24 +4552,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>NCT00146094</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
         <is>
           <t>Osteopenia and Osteoporosis in HIV Infection. Prospective BMD Measurement in Antiretroviral (ARV) Treated and Untreated HIV-1 Infected Patients</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4069,30 +4584,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2016-001229-15</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2013-001686-16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>PIMPARK</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>EVALUATION D'UN GEL DE MORPHINE ORAL DANS LES MUCITES CHIMIOINDUITES DE L'ENFANT ET DU JEUNE ADULTE</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>MorphinOGel</t>
+        </is>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4102,64 +4622,74 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2016-001229-15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Study of pimavanserin efficacy for the treatment of impulse control disorders in Parkinson's disease</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>PIMPARK</t>
+        </is>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
         <is>
           <t>2018-002163-26</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
         <is>
           <t>Pilot study on doxorubicin kinetic distribution during arterial chemoembolization 
  Etude pilote de la cinétique de distribution de la Doxorubicine lors de la chimio-embolisation artérielle</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>CINEDOXO</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2013-001686-16</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>EVALUATION D'UN GEL DE MORPHINE ORAL DANS LES MUCITES CHIMIOINDUITES DE L'ENFANT ET DU JEUNE ADULTE</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>MorphinOGel</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
+++ b/publipostage/04bckew43/liste_essais_cliniques_identifies_04bckew43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +699,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,6 +742,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +789,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -792,6 +832,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -830,6 +875,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -868,6 +918,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -906,6 +961,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -944,6 +1004,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -982,6 +1047,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1020,6 +1090,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1058,6 +1133,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1100,6 +1180,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1138,6 +1223,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1176,6 +1266,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1218,6 +1313,7 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1256,6 +1352,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1298,6 +1399,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1336,6 +1442,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1374,6 +1485,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1412,6 +1528,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1450,6 +1571,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1488,6 +1614,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1526,6 +1657,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1564,6 +1700,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1602,6 +1743,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1644,6 +1790,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1682,6 +1833,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1720,6 +1876,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1759,6 +1920,7 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1801,6 +1963,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1839,6 +2006,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1881,6 +2053,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1923,6 +2100,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1965,6 +2147,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2003,6 +2190,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2045,6 +2237,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2087,6 +2284,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2128,6 +2330,11 @@
       </c>
       <c r="J43" t="b">
         <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2167,6 +2374,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2209,6 +2421,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2251,6 +2468,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2289,6 +2511,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2327,6 +2554,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2365,6 +2597,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2409,6 +2646,7 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2452,6 +2690,7 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2494,6 +2733,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2536,6 +2780,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2578,6 +2827,7 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2620,6 +2870,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2662,6 +2917,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2700,6 +2960,11 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2742,6 +3007,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2780,6 +3050,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2822,6 +3097,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2860,6 +3140,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2898,6 +3183,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2936,6 +3226,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2978,6 +3273,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3020,6 +3320,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3062,6 +3367,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3104,6 +3414,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3146,6 +3461,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3189,6 +3509,7 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3230,6 +3551,11 @@
       </c>
       <c r="J70" t="b">
         <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3269,6 +3595,11 @@
       <c r="J71" t="b">
         <v>1</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3311,6 +3642,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3353,6 +3689,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3395,6 +3736,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3437,6 +3783,11 @@
       <c r="J75" t="b">
         <v>1</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3479,6 +3830,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3521,6 +3877,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3559,6 +3920,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3601,6 +3967,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3643,6 +4014,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3685,6 +4061,11 @@
       <c r="J81" t="b">
         <v>1</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3727,6 +4108,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3769,6 +4155,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3811,6 +4202,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3853,6 +4249,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3895,6 +4296,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3937,6 +4343,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3979,6 +4390,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4017,6 +4433,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4059,6 +4480,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4101,6 +4527,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4143,6 +4574,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4185,6 +4621,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4227,6 +4668,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4269,6 +4715,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4311,6 +4762,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4353,6 +4809,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4391,6 +4852,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4433,6 +4899,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4474,6 +4945,11 @@
       </c>
       <c r="J100" t="b">
         <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4509,6 +4985,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4543,6 +5024,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4577,6 +5063,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4615,6 +5106,7 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4653,6 +5145,7 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4692,6 +5185,7 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
